--- a/NformTester/NformTester/keywordscripts/TST1123_DataLoggingforOneDeviceDataPoints.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1123_DataLoggingforOneDeviceDataPoints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -3623,9 +3623,6 @@
     <t>"SNMP"</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>;Clear operation.</t>
   </si>
   <si>
@@ -3763,7 +3760,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_1$</t>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4689,8 +4690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4781,13 +4782,13 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4797,13 +4798,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>803</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4822,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4853,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4891,16 +4892,16 @@
         <v>794</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>840</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>798</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>795</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>797</v>
@@ -4919,7 +4920,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4942,7 +4943,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
@@ -4973,7 +4974,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -5000,7 +5001,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>241</v>
@@ -5029,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>278</v>
@@ -5041,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5060,7 +5061,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>278</v>
@@ -5072,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -5091,7 +5092,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>278</v>
@@ -5120,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>278</v>
@@ -5149,7 +5150,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="5"/>
@@ -5172,7 +5173,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>241</v>
@@ -5184,7 +5185,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5203,7 +5204,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5"/>
@@ -5269,11 +5270,11 @@
         <v>4</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="5" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>795</v>
@@ -5308,7 +5309,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="5"/>
@@ -5339,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
@@ -5366,7 +5367,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5393,7 +5394,7 @@
         <v>13</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5506,7 +5507,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -5575,7 +5576,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>0</v>
@@ -5585,13 +5586,13 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5604,7 +5605,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>18</v>
@@ -5629,7 +5630,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5673,7 +5674,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>19</v>
@@ -5698,7 +5699,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>577</v>
@@ -5710,7 +5711,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5725,7 +5726,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>577</v>
@@ -5750,7 +5751,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>518</v>
@@ -5825,7 +5826,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>575</v>
@@ -5850,7 +5851,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>575</v>
@@ -5879,7 +5880,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>575</v>
@@ -5908,7 +5909,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>575</v>
@@ -5987,7 +5988,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>575</v>
@@ -6037,7 +6038,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>575</v>
@@ -6049,7 +6050,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="5"/>
@@ -6087,7 +6088,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>575</v>
@@ -6112,7 +6113,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>518</v>
@@ -6137,7 +6138,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>577</v>
@@ -6162,7 +6163,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>518</v>
@@ -6187,7 +6188,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>575</v>
@@ -6202,7 +6203,7 @@
         <v>793</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J55" s="11">
         <v>1</v>
@@ -6280,7 +6281,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="5"/>
@@ -6345,7 +6346,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>577</v>
@@ -6370,7 +6371,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>518</v>
@@ -6395,7 +6396,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>575</v>
@@ -6410,7 +6411,7 @@
         <v>793</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J63" s="11">
         <v>1</v>
@@ -6488,7 +6489,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="5"/>
@@ -6553,7 +6554,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>577</v>
@@ -6578,7 +6579,7 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>518</v>
@@ -6603,7 +6604,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>575</v>
@@ -6618,7 +6619,7 @@
         <v>793</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J71" s="11">
         <v>2</v>
@@ -6696,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="5"/>
@@ -6761,7 +6762,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>577</v>
@@ -6786,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>518</v>
@@ -6811,7 +6812,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>575</v>
@@ -6826,7 +6827,7 @@
         <v>793</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J79" s="11">
         <v>1</v>
@@ -6904,7 +6905,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="5"/>
@@ -6969,7 +6970,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>577</v>
@@ -6994,7 +6995,7 @@
         <v>85</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>518</v>
@@ -7019,7 +7020,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>575</v>
@@ -7034,7 +7035,7 @@
         <v>793</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J87" s="11">
         <v>1</v>
@@ -7148,7 +7149,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="5"/>
@@ -7190,7 +7191,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="5"/>
@@ -7511,7 +7512,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>708</v>
@@ -7559,7 +7560,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>708</v>
@@ -7607,7 +7608,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="5"/>
@@ -7626,7 +7627,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="5"/>
@@ -7693,7 +7694,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>0</v>
@@ -7703,13 +7704,13 @@
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="I115" s="5" t="s">
-        <v>828</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
@@ -7721,7 +7722,7 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>18</v>
@@ -7769,7 +7770,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>19</v>
@@ -7793,7 +7794,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>241</v>
@@ -7805,7 +7806,7 @@
         <v>56</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
@@ -7819,7 +7820,7 @@
         <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>241</v>
@@ -7843,7 +7844,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>241</v>
@@ -7855,7 +7856,7 @@
         <v>56</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
@@ -7869,7 +7870,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>241</v>
@@ -7893,7 +7894,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>241</v>
@@ -7979,7 +7980,7 @@
         <v>56</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="I126" s="11"/>
       <c r="J126" s="5"/>
@@ -30005,27 +30006,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1123_DataLoggingforOneDeviceDataPoints.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1123_DataLoggingforOneDeviceDataPoints.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7671" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7681" uniqueCount="844">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3765,6 +3765,18 @@
   </si>
   <si>
     <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4688,10 +4700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4879,52 +4891,48 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>791</v>
+        <v>841</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>797</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="7"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -4943,17 +4951,15 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>813</v>
+        <v>842</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -4974,45 +4980,49 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>577</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+        <v>583</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>797</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11"/>
+      <c r="D10" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -5032,18 +5042,16 @@
       <c r="D11" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>278</v>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>814</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -5063,18 +5071,16 @@
       <c r="D12" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>278</v>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>815</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -5095,13 +5101,13 @@
         <v>813</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="5"/>
@@ -5127,13 +5133,15 @@
         <v>278</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -5141,7 +5149,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="15">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>781</v>
       </c>
@@ -5149,13 +5157,21 @@
       <c r="C15" s="5">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -5176,17 +5192,15 @@
         <v>813</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>814</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -5195,7 +5209,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="15">
+    <row r="17" spans="1:15">
       <c r="A17" s="3"/>
       <c r="B17" s="15" t="s">
         <v>783</v>
@@ -5203,14 +5217,20 @@
       <c r="C17" s="5">
         <v>16</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -5218,7 +5238,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
         <v>784</v>
@@ -5226,18 +5246,12 @@
       <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D18" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5258,37 +5272,29 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>797</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="7"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="15">
       <c r="A20" s="3" t="s">
         <v>786</v>
       </c>
@@ -5296,22 +5302,14 @@
       <c r="C20" s="5">
         <v>19</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>819</v>
-      </c>
-      <c r="I20" s="11"/>
+      <c r="D20" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -5331,18 +5329,16 @@
         <v>789</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="I21" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -5361,19 +5357,27 @@
         <v>254</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+        <v>818</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>797</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="2"/>
     </row>
@@ -5388,15 +5392,15 @@
         <v>254</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="I23" s="5"/>
+        <v>819</v>
+      </c>
+      <c r="I23" s="11"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -5415,12 +5419,14 @@
         <v>254</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>820</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5440,13 +5446,15 @@
         <v>254</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -5462,15 +5470,17 @@
         <v>789</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>814</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -5484,15 +5494,17 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5"/>
+        <v>254</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="5"/>
@@ -5502,18 +5514,24 @@
       <c r="N27" s="7"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15">
       <c r="C28" s="5">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="D28" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -5528,16 +5546,16 @@
       <c r="D29" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>19</v>
+      <c r="E29" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -5551,19 +5569,17 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+        <v>788</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -5571,29 +5587,19 @@
       <c r="N30" s="7"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="15">
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>769</v>
-      </c>
+      <c r="D31" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>823</v>
-      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -5605,19 +5611,19 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>836</v>
+        <v>789</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -5625,16 +5631,22 @@
       <c r="N32" s="7"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:15" ht="15">
+    <row r="33" spans="3:15">
       <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="D33" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -5649,20 +5661,24 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>19</v>
+        <v>822</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -5674,19 +5690,19 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>19</v>
+        <v>836</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -5694,25 +5710,17 @@
       <c r="N35" s="7"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" ht="15">
       <c r="C36" s="5">
         <v>35</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>840</v>
-      </c>
+      <c r="D36" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5726,19 +5734,19 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -5754,10 +5762,10 @@
         <v>805</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>518</v>
+        <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>525</v>
+        <v>78</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>2</v>
@@ -5776,18 +5784,20 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>374</v>
+        <v>578</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>840</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -5801,19 +5811,19 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>375</v>
+        <v>174</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -5829,16 +5839,16 @@
         <v>805</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>374</v>
+        <v>525</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -5851,23 +5861,19 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>576</v>
+        <v>374</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="11">
-        <v>2</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -5880,23 +5886,19 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>576</v>
+        <v>375</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="11">
-        <v>3</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -5915,17 +5917,13 @@
         <v>575</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>576</v>
+        <v>374</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="11">
-        <v>4</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -5938,19 +5936,23 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>328</v>
+        <v>576</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H45" s="11">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -5963,19 +5965,23 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>329</v>
+        <v>576</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="H46" s="11">
+        <v>3</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -5994,15 +6000,17 @@
         <v>575</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>330</v>
+        <v>576</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="I47" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H47" s="11">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -6015,15 +6023,17 @@
         <v>47</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F48" s="5">
-        <v>2</v>
-      </c>
-      <c r="G48" s="5"/>
+        <v>575</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="5"/>
@@ -6038,21 +6048,19 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>575</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="I49" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -6065,16 +6073,20 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F50" s="5">
-        <v>2</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="11"/>
+        <v>575</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>792</v>
+      </c>
       <c r="I50" s="11"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6088,19 +6100,17 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="5"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -6116,15 +6126,17 @@
         <v>805</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>806</v>
+      </c>
       <c r="I52" s="11"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -6138,17 +6150,15 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="5"/>
@@ -6166,16 +6176,16 @@
         <v>805</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -6191,23 +6201,17 @@
         <v>805</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="J55" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -6219,15 +6223,17 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F56" s="5">
-        <v>2</v>
-      </c>
-      <c r="G56" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="5"/>
@@ -6242,20 +6248,18 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>792</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -6269,7 +6273,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>575</v>
@@ -6278,13 +6282,17 @@
         <v>330</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="5"/>
+        <v>793</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="J58" s="11">
+        <v>1</v>
+      </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -6296,17 +6304,15 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="5"/>
@@ -6324,15 +6330,17 @@
         <v>789</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>792</v>
+      </c>
       <c r="I60" s="11"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -6346,18 +6354,20 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>807</v>
+      </c>
       <c r="I61" s="11"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -6371,13 +6381,13 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>2</v>
@@ -6396,26 +6406,20 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="J63" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -6427,15 +6431,17 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F64" s="5">
-        <v>2</v>
-      </c>
-      <c r="G64" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="5"/>
@@ -6450,20 +6456,18 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>792</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -6477,7 +6481,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>575</v>
@@ -6486,13 +6490,17 @@
         <v>330</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="5"/>
+        <v>793</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="J66" s="11">
+        <v>1</v>
+      </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -6504,17 +6512,15 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F67" s="5">
+        <v>2</v>
+      </c>
+      <c r="G67" s="5"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="5"/>
@@ -6532,15 +6538,17 @@
         <v>789</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>792</v>
+      </c>
       <c r="I68" s="11"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -6554,18 +6562,20 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>810</v>
+      </c>
       <c r="I69" s="11"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -6579,13 +6589,13 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>2</v>
@@ -6604,26 +6614,20 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="J71" s="11">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -6635,15 +6639,17 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F72" s="5">
-        <v>2</v>
-      </c>
-      <c r="G72" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="5"/>
@@ -6658,20 +6664,18 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>792</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -6685,7 +6689,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>575</v>
@@ -6694,13 +6698,17 @@
         <v>330</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="5"/>
+        <v>793</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="J74" s="11">
+        <v>2</v>
+      </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -6712,17 +6720,15 @@
         <v>74</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F75" s="5">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
       <c r="J75" s="5"/>
@@ -6740,15 +6746,17 @@
         <v>789</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>792</v>
+      </c>
       <c r="I76" s="11"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -6762,18 +6770,20 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>809</v>
+      </c>
       <c r="I77" s="11"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -6787,13 +6797,13 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>2</v>
@@ -6812,26 +6822,20 @@
         <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="J79" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -6843,15 +6847,17 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F80" s="5">
-        <v>2</v>
-      </c>
-      <c r="G80" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="5"/>
@@ -6866,20 +6872,18 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>792</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" s="11"/>
       <c r="I81" s="11"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -6893,7 +6897,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>575</v>
@@ -6902,13 +6906,17 @@
         <v>330</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="I82" s="11"/>
-      <c r="J82" s="5"/>
+        <v>793</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="J82" s="11">
+        <v>1</v>
+      </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -6920,17 +6928,15 @@
         <v>82</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F83" s="5">
+        <v>2</v>
+      </c>
+      <c r="G83" s="5"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="5"/>
@@ -6948,15 +6954,17 @@
         <v>789</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>792</v>
+      </c>
       <c r="I84" s="11"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -6970,18 +6978,20 @@
         <v>84</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>808</v>
+      </c>
       <c r="I85" s="11"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -6995,13 +7005,13 @@
         <v>85</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>525</v>
+        <v>17</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>2</v>
@@ -7020,26 +7030,20 @@
         <v>86</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>793</v>
-      </c>
-      <c r="I87" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="J87" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -7051,15 +7055,17 @@
         <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F88" s="5">
-        <v>2</v>
-      </c>
-      <c r="G88" s="5"/>
+        <v>577</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="5"/>
@@ -7074,13 +7080,13 @@
         <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>99</v>
+        <v>525</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>2</v>
@@ -7099,20 +7105,26 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="J90" s="11">
+        <v>1</v>
+      </c>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -7124,17 +7136,15 @@
         <v>90</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F91" s="5">
+        <v>2</v>
+      </c>
+      <c r="G91" s="5"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="J91" s="5"/>
@@ -7144,16 +7154,22 @@
       <c r="N91" s="7"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="3:15" ht="15">
+    <row r="92" spans="3:15">
       <c r="C92" s="5">
         <v>91</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="D92" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="5"/>
@@ -7168,15 +7184,17 @@
         <v>92</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F93" s="5">
-        <v>1</v>
-      </c>
-      <c r="G93" s="5"/>
+        <v>518</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
       <c r="J93" s="5"/>
@@ -7186,16 +7204,22 @@
       <c r="N93" s="7"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="3:15" ht="15">
+    <row r="94" spans="3:15">
       <c r="C94" s="5">
         <v>93</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="D94" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="5"/>
@@ -7205,22 +7229,16 @@
       <c r="N94" s="7"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="3:15">
+    <row r="95" spans="3:15" ht="15">
       <c r="C95" s="5">
         <v>94</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D95" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
       <c r="J95" s="5"/>
@@ -7235,17 +7253,15 @@
         <v>95</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+      <c r="G96" s="5"/>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
       <c r="J96" s="5"/>
@@ -7255,22 +7271,16 @@
       <c r="N96" s="7"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="3:15">
+    <row r="97" spans="3:15" ht="15">
       <c r="C97" s="5">
         <v>96</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D97" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
       <c r="J97" s="5"/>
@@ -7288,10 +7298,10 @@
         <v>789</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>2</v>
@@ -7313,20 +7323,16 @@
         <v>789</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H99" s="11">
-        <v>1</v>
-      </c>
-      <c r="I99" s="11">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
@@ -7342,10 +7348,10 @@
         <v>789</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>2</v>
@@ -7370,7 +7376,7 @@
         <v>708</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>709</v>
+        <v>166</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>2</v>
@@ -7395,13 +7401,17 @@
         <v>708</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>710</v>
+        <v>55</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="H102" s="11">
+        <v>1</v>
+      </c>
+      <c r="I102" s="11">
+        <v>0</v>
+      </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -7420,7 +7430,7 @@
         <v>708</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>709</v>
+        <v>166</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>2</v>
@@ -7439,15 +7449,17 @@
         <v>103</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F104" s="5">
-        <v>1</v>
-      </c>
-      <c r="G104" s="5"/>
+        <v>708</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
       <c r="J104" s="5"/>
@@ -7468,7 +7480,7 @@
         <v>708</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>2</v>
@@ -7493,7 +7505,7 @@
         <v>708</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>166</v>
+        <v>715</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>2</v>
@@ -7512,17 +7524,15 @@
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F107" s="5">
+        <v>1</v>
+      </c>
+      <c r="G107" s="5"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
       <c r="J107" s="5"/>
@@ -7537,15 +7547,17 @@
         <v>107</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F108" s="5">
-        <v>10</v>
-      </c>
-      <c r="G108" s="5"/>
+        <v>708</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="5"/>
@@ -7560,13 +7572,13 @@
         <v>108</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>708</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>603</v>
+        <v>166</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>2</v>
@@ -7585,15 +7597,17 @@
         <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="F110" s="5">
-        <v>2</v>
-      </c>
-      <c r="G110" s="5"/>
+        <v>708</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
       <c r="J110" s="5"/>
@@ -7603,15 +7617,19 @@
       <c r="N110" s="7"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="3:15" ht="15">
+    <row r="111" spans="3:15">
       <c r="C111" s="5">
         <v>110</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="5"/>
+      <c r="D111" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="F111" s="5">
+        <v>10</v>
+      </c>
       <c r="G111" s="5"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -7622,16 +7640,22 @@
       <c r="N111" s="7"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="3:15" ht="15">
+    <row r="112" spans="3:15">
       <c r="C112" s="5">
         <v>111</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+      <c r="D112" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
       <c r="J112" s="5"/>
@@ -7646,17 +7670,15 @@
         <v>112</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F113" s="5">
+        <v>2</v>
+      </c>
+      <c r="G113" s="5"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="5"/>
@@ -7665,22 +7687,16 @@
       <c r="M113" s="5"/>
       <c r="N113" s="7"/>
     </row>
-    <row r="114" spans="3:15">
+    <row r="114" spans="3:15" ht="15">
       <c r="C114" s="5">
         <v>113</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D114" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
       <c r="J114" s="5"/>
@@ -7689,29 +7705,19 @@
       <c r="M114" s="5"/>
       <c r="N114" s="7"/>
     </row>
-    <row r="115" spans="3:15">
+    <row r="115" spans="3:15" ht="15">
       <c r="C115" s="5">
         <v>114</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>769</v>
-      </c>
+      <c r="D115" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="5"/>
       <c r="G115" s="5"/>
-      <c r="H115" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>823</v>
-      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
@@ -7722,13 +7728,13 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>18</v>
+        <v>789</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>2</v>
@@ -7751,14 +7757,14 @@
       <c r="E117" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F117" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -7770,20 +7776,24 @@
         <v>117</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
@@ -7794,21 +7804,19 @@
         <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>828</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>241</v>
+        <v>836</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="I119" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
@@ -7820,13 +7828,13 @@
         <v>119</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>2</v>
@@ -7844,20 +7852,18 @@
         <v>120</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>241</v>
+        <v>828</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>814</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -7870,18 +7876,20 @@
         <v>121</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F122" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -7900,7 +7908,7 @@
         <v>241</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>2</v>
@@ -7918,19 +7926,21 @@
         <v>123</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>789</v>
+        <v>829</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H124" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
@@ -7943,19 +7953,19 @@
         <v>124</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>789</v>
+        <v>829</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
+        <v>241</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
@@ -7968,21 +7978,19 @@
         <v>125</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>789</v>
+        <v>829</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="I126" s="11"/>
+        <v>241</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -7998,10 +8006,10 @@
         <v>789</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>2</v>
@@ -8022,10 +8030,10 @@
         <v>789</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>585</v>
+        <v>19</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>2</v>
@@ -8049,12 +8057,14 @@
         <v>577</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H129" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>840</v>
+      </c>
       <c r="I129" s="11"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
@@ -8063,13 +8073,23 @@
       <c r="N129" s="7"/>
     </row>
     <row r="130" spans="3:14">
-      <c r="C130" s="5"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
+      <c r="C130" s="5">
+        <v>129</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
@@ -8077,13 +8097,23 @@
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="3:14">
-      <c r="C131" s="5"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
+      <c r="C131" s="5">
+        <v>130</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
@@ -8091,22 +8121,80 @@
       <c r="N131" s="7"/>
     </row>
     <row r="132" spans="3:14">
-      <c r="C132" s="5"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
+      <c r="C132" s="5">
+        <v>131</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
       <c r="N132" s="7"/>
     </row>
+    <row r="133" spans="3:14">
+      <c r="C133" s="5">
+        <v>132</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="7"/>
+    </row>
+    <row r="134" spans="3:14">
+      <c r="C134" s="5">
+        <v>133</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="7"/>
+    </row>
+    <row r="135" spans="3:14">
+      <c r="C135" s="5">
+        <v>134</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N132">
+  <conditionalFormatting sqref="N2:N135">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8115,21 +8203,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D118:D119 D93 D113:D116 D34:D91 D29:D32 D27 D6 D8:D14 D16 D3:D4 D95:D110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F10:F135">
+      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 G10:G135">
+      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D121:D122 D98:D113 D19 D11:D17 D30 D32:D35 D37:D94 D116:D119 D96 D3:D4 D6:D9">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E135">
       <formula1>Forms</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F132">
-      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G132">
-      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H45" r:id="rId1" display="http://10.130.112.3"/>
+    <hyperlink ref="H48" r:id="rId1" display="http://10.130.112.3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/NformTester/NformTester/keywordscripts/TST1123_DataLoggingforOneDeviceDataPoints.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1123_DataLoggingforOneDeviceDataPoints.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7681" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7678" uniqueCount="844">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3617,9 +3617,6 @@
     <t>"Description for GXT"</t>
   </si>
   <si>
-    <t>"Liebert Alber"</t>
-  </si>
-  <si>
     <t>"SNMP"</t>
   </si>
   <si>
@@ -3760,14 +3757,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3777,6 +3766,18 @@
   </si>
   <si>
     <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3816,6 +3817,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4702,8 +4704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4794,13 +4796,13 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4810,13 +4812,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>801</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>802</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4835,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4866,7 +4868,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4885,13 +4887,13 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41075</v>
+        <v>41445</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
@@ -4922,7 +4924,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -4944,17 +4946,17 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>841</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F8" s="5">
         <v>10</v>
@@ -4971,11 +4973,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4993,31 +4993,35 @@
         <v>794</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>795</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5032,15 +5036,13 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -5062,14 +5064,14 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>19</v>
@@ -5091,14 +5093,14 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>241</v>
@@ -5120,14 +5122,14 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>278</v>
@@ -5139,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5151,14 +5153,14 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>278</v>
@@ -5170,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5182,14 +5184,14 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>278</v>
@@ -5210,15 +5212,15 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>278</v>
@@ -5241,13 +5243,13 @@
     <row r="18" spans="1:15" ht="15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="5"/>
@@ -5262,17 +5264,15 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>241</v>
@@ -5284,7 +5284,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -5296,14 +5296,16 @@
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
@@ -5319,7 +5321,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5347,6 +5349,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5363,21 +5369,13 @@
         <v>4</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>797</v>
-      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="7"/>
       <c r="O22" s="2"/>
     </row>
@@ -5398,7 +5396,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
@@ -5425,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="5"/>
@@ -5452,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -5479,7 +5477,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5592,7 +5590,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5661,7 +5659,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>0</v>
@@ -5671,13 +5669,13 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -5690,7 +5688,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>18</v>
@@ -5715,7 +5713,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -5759,7 +5757,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>19</v>
@@ -5784,7 +5782,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>577</v>
@@ -5796,7 +5794,7 @@
         <v>56</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -5811,7 +5809,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>577</v>
@@ -5836,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>518</v>
@@ -5911,7 +5909,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>575</v>
@@ -5936,7 +5934,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>575</v>
@@ -5965,7 +5963,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>575</v>
@@ -5994,7 +5992,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>575</v>
@@ -6073,7 +6071,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>575</v>
@@ -6123,7 +6121,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>575</v>
@@ -6135,7 +6133,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="5"/>
@@ -6173,7 +6171,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>575</v>
@@ -6198,7 +6196,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>518</v>
@@ -6223,7 +6221,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>577</v>
@@ -6248,7 +6246,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>518</v>
@@ -6273,7 +6271,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>575</v>
@@ -6288,7 +6286,7 @@
         <v>793</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J58" s="11">
         <v>1</v>
@@ -6366,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="5"/>
@@ -6431,7 +6429,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>577</v>
@@ -6456,7 +6454,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>518</v>
@@ -6481,7 +6479,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>575</v>
@@ -6496,7 +6494,7 @@
         <v>793</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J66" s="11">
         <v>1</v>
@@ -6574,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="5"/>
@@ -6639,7 +6637,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>577</v>
@@ -6664,7 +6662,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>518</v>
@@ -6689,7 +6687,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>575</v>
@@ -6704,7 +6702,7 @@
         <v>793</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J74" s="11">
         <v>2</v>
@@ -6782,7 +6780,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="5"/>
@@ -6847,7 +6845,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>577</v>
@@ -6872,7 +6870,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>518</v>
@@ -6897,7 +6895,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>575</v>
@@ -6912,7 +6910,7 @@
         <v>793</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J82" s="11">
         <v>1</v>
@@ -6990,7 +6988,7 @@
         <v>4</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I85" s="11"/>
       <c r="J85" s="5"/>
@@ -7055,7 +7053,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>577</v>
@@ -7080,7 +7078,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>518</v>
@@ -7105,7 +7103,7 @@
         <v>89</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>575</v>
@@ -7120,7 +7118,7 @@
         <v>793</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J90" s="11">
         <v>1</v>
@@ -7234,7 +7232,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="5"/>
@@ -7276,7 +7274,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="5"/>
@@ -7597,7 +7595,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>708</v>
@@ -7645,7 +7643,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>708</v>
@@ -7692,7 +7690,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="5"/>
@@ -7710,7 +7708,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="5"/>
@@ -7776,7 +7774,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>0</v>
@@ -7786,13 +7784,13 @@
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I118" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>827</v>
-      </c>
       <c r="J118" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
@@ -7804,7 +7802,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>18</v>
@@ -7852,7 +7850,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>19</v>
@@ -7876,7 +7874,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>241</v>
@@ -7888,7 +7886,7 @@
         <v>56</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -7902,7 +7900,7 @@
         <v>122</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>241</v>
@@ -7926,7 +7924,7 @@
         <v>123</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>241</v>
@@ -7938,7 +7936,7 @@
         <v>56</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
@@ -7953,7 +7951,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>241</v>
@@ -7978,7 +7976,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>241</v>
@@ -8063,7 +8061,7 @@
         <v>56</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="I129" s="11"/>
       <c r="J129" s="5"/>
@@ -8203,10 +8201,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F10:F135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F135">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 G10:G135">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G135">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D121:D122 D98:D113 D19 D11:D17 D30 D32:D35 D37:D94 D116:D119 D96 D3:D4 D6:D9">
@@ -30094,27 +30092,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
